--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="126">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -340,6 +340,9 @@
     <t>['83']</t>
   </si>
   <si>
+    <t>['22']</t>
+  </si>
+  <si>
     <t>['4', '38']</t>
   </si>
   <si>
@@ -386,6 +389,9 @@
   </si>
   <si>
     <t>['33']</t>
+  </si>
+  <si>
+    <t>['21']</t>
   </si>
 </sst>
 </file>
@@ -747,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK28"/>
+  <dimension ref="A1:BK30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -991,7 +997,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1463,7 +1469,7 @@
         <v>3</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1564,7 +1570,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -1755,7 +1761,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -1946,7 +1952,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2224,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -2328,7 +2334,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2519,7 +2525,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2710,7 +2716,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -2991,7 +2997,7 @@
         <v>2</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3092,7 +3098,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3283,7 +3289,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3474,7 +3480,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3665,7 +3671,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -3755,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="AT16">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4047,7 +4053,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4238,7 +4244,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4429,7 +4435,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -4620,7 +4626,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -4811,7 +4817,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5002,7 +5008,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5089,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT23">
         <v>1</v>
@@ -5471,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT25">
         <v>0.5</v>
@@ -5575,7 +5581,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6099,6 +6105,388 @@
       </c>
       <c r="BK28">
         <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>5188960</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2">
+        <v>44996.08333333334</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>84</v>
+      </c>
+      <c r="P29" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q29">
+        <v>11</v>
+      </c>
+      <c r="R29">
+        <v>4</v>
+      </c>
+      <c r="S29">
+        <v>15</v>
+      </c>
+      <c r="T29">
+        <v>3.52</v>
+      </c>
+      <c r="U29">
+        <v>2.14</v>
+      </c>
+      <c r="V29">
+        <v>3.46</v>
+      </c>
+      <c r="W29">
+        <v>1.47</v>
+      </c>
+      <c r="X29">
+        <v>2.77</v>
+      </c>
+      <c r="Y29">
+        <v>3.35</v>
+      </c>
+      <c r="Z29">
+        <v>1.35</v>
+      </c>
+      <c r="AA29">
+        <v>7.5</v>
+      </c>
+      <c r="AB29">
+        <v>1.06</v>
+      </c>
+      <c r="AC29">
+        <v>2.52</v>
+      </c>
+      <c r="AD29">
+        <v>3.43</v>
+      </c>
+      <c r="AE29">
+        <v>2.85</v>
+      </c>
+      <c r="AF29">
+        <v>1.05</v>
+      </c>
+      <c r="AG29">
+        <v>8</v>
+      </c>
+      <c r="AH29">
+        <v>1.35</v>
+      </c>
+      <c r="AI29">
+        <v>3.3</v>
+      </c>
+      <c r="AJ29">
+        <v>1.9</v>
+      </c>
+      <c r="AK29">
+        <v>1.95</v>
+      </c>
+      <c r="AL29">
+        <v>1.83</v>
+      </c>
+      <c r="AM29">
+        <v>2.01</v>
+      </c>
+      <c r="AN29">
+        <v>1.5</v>
+      </c>
+      <c r="AO29">
+        <v>1.37</v>
+      </c>
+      <c r="AP29">
+        <v>1.47</v>
+      </c>
+      <c r="AQ29">
+        <v>3</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>2</v>
+      </c>
+      <c r="AT29">
+        <v>1</v>
+      </c>
+      <c r="AU29">
+        <v>1.31</v>
+      </c>
+      <c r="AV29">
+        <v>1.08</v>
+      </c>
+      <c r="AW29">
+        <v>2.39</v>
+      </c>
+      <c r="AX29">
+        <v>1.95</v>
+      </c>
+      <c r="AY29">
+        <v>7.5</v>
+      </c>
+      <c r="AZ29">
+        <v>2.1</v>
+      </c>
+      <c r="BA29">
+        <v>1.41</v>
+      </c>
+      <c r="BB29">
+        <v>1.75</v>
+      </c>
+      <c r="BC29">
+        <v>2.25</v>
+      </c>
+      <c r="BD29">
+        <v>3.04</v>
+      </c>
+      <c r="BE29">
+        <v>4.5</v>
+      </c>
+      <c r="BF29">
+        <v>4</v>
+      </c>
+      <c r="BG29">
+        <v>2</v>
+      </c>
+      <c r="BH29">
+        <v>4</v>
+      </c>
+      <c r="BI29">
+        <v>5</v>
+      </c>
+      <c r="BJ29">
+        <v>8</v>
+      </c>
+      <c r="BK29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>5188959</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2">
+        <v>44996.08333333334</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>108</v>
+      </c>
+      <c r="P30" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+      <c r="R30">
+        <v>8</v>
+      </c>
+      <c r="S30">
+        <v>11</v>
+      </c>
+      <c r="T30">
+        <v>4.04</v>
+      </c>
+      <c r="U30">
+        <v>2.2</v>
+      </c>
+      <c r="V30">
+        <v>2.56</v>
+      </c>
+      <c r="W30">
+        <v>1.36</v>
+      </c>
+      <c r="X30">
+        <v>3</v>
+      </c>
+      <c r="Y30">
+        <v>2.75</v>
+      </c>
+      <c r="Z30">
+        <v>1.4</v>
+      </c>
+      <c r="AA30">
+        <v>6.5</v>
+      </c>
+      <c r="AB30">
+        <v>1.1</v>
+      </c>
+      <c r="AC30">
+        <v>3.46</v>
+      </c>
+      <c r="AD30">
+        <v>3.66</v>
+      </c>
+      <c r="AE30">
+        <v>2.09</v>
+      </c>
+      <c r="AF30">
+        <v>1.05</v>
+      </c>
+      <c r="AG30">
+        <v>9</v>
+      </c>
+      <c r="AH30">
+        <v>1.29</v>
+      </c>
+      <c r="AI30">
+        <v>3.5</v>
+      </c>
+      <c r="AJ30">
+        <v>1.87</v>
+      </c>
+      <c r="AK30">
+        <v>1.98</v>
+      </c>
+      <c r="AL30">
+        <v>1.73</v>
+      </c>
+      <c r="AM30">
+        <v>2</v>
+      </c>
+      <c r="AN30">
+        <v>1.73</v>
+      </c>
+      <c r="AO30">
+        <v>1.25</v>
+      </c>
+      <c r="AP30">
+        <v>1.3</v>
+      </c>
+      <c r="AQ30">
+        <v>1</v>
+      </c>
+      <c r="AR30">
+        <v>3</v>
+      </c>
+      <c r="AS30">
+        <v>2</v>
+      </c>
+      <c r="AT30">
+        <v>1.5</v>
+      </c>
+      <c r="AU30">
+        <v>1.4</v>
+      </c>
+      <c r="AV30">
+        <v>1.88</v>
+      </c>
+      <c r="AW30">
+        <v>3.28</v>
+      </c>
+      <c r="AX30">
+        <v>2</v>
+      </c>
+      <c r="AY30">
+        <v>7.5</v>
+      </c>
+      <c r="AZ30">
+        <v>2.1</v>
+      </c>
+      <c r="BA30">
+        <v>1.48</v>
+      </c>
+      <c r="BB30">
+        <v>1.93</v>
+      </c>
+      <c r="BC30">
+        <v>2.46</v>
+      </c>
+      <c r="BD30">
+        <v>3.42</v>
+      </c>
+      <c r="BE30">
+        <v>4.75</v>
+      </c>
+      <c r="BF30">
+        <v>4</v>
+      </c>
+      <c r="BG30">
+        <v>3</v>
+      </c>
+      <c r="BH30">
+        <v>6</v>
+      </c>
+      <c r="BI30">
+        <v>4</v>
+      </c>
+      <c r="BJ30">
+        <v>10</v>
+      </c>
+      <c r="BK30">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="134">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -343,6 +343,15 @@
     <t>['22']</t>
   </si>
   <si>
+    <t>['38', '52']</t>
+  </si>
+  <si>
+    <t>['8', '77']</t>
+  </si>
+  <si>
+    <t>['5', '27', '62']</t>
+  </si>
+  <si>
     <t>['4', '38']</t>
   </si>
   <si>
@@ -392,6 +401,21 @@
   </si>
   <si>
     <t>['21']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['41', '52', '70']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['55', '74']</t>
+  </si>
+  <si>
+    <t>['2', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -753,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK30"/>
+  <dimension ref="A1:BK37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -997,7 +1021,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1087,7 +1111,7 @@
         <v>0.5</v>
       </c>
       <c r="AT2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1570,7 +1594,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -1660,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1761,7 +1785,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -1952,7 +1976,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2039,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT7">
         <v>2</v>
@@ -2233,7 +2257,7 @@
         <v>2</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2334,7 +2358,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2525,7 +2549,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2612,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AT10">
         <v>0.5</v>
@@ -2716,7 +2740,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -2803,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3098,7 +3122,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3185,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT13">
         <v>3</v>
@@ -3289,7 +3313,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3376,10 +3400,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3480,7 +3504,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3671,7 +3695,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -3758,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT16">
         <v>1.5</v>
@@ -3952,7 +3976,7 @@
         <v>3</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4053,7 +4077,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4244,7 +4268,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4331,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AT19">
         <v>0.5</v>
@@ -4435,7 +4459,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -4525,7 +4549,7 @@
         <v>2</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU20">
         <v>1.93</v>
@@ -4626,7 +4650,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -4817,7 +4841,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5008,7 +5032,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5581,7 +5605,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6053,7 +6077,7 @@
         <v>1.5</v>
       </c>
       <c r="AT28">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU28">
         <v>1.2</v>
@@ -6154,7 +6178,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6487,6 +6511,1343 @@
       </c>
       <c r="BK30">
         <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>5188961</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2">
+        <v>44997.08333333334</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>109</v>
+      </c>
+      <c r="P31" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>6</v>
+      </c>
+      <c r="S31">
+        <v>9</v>
+      </c>
+      <c r="T31">
+        <v>2.5</v>
+      </c>
+      <c r="U31">
+        <v>2.2</v>
+      </c>
+      <c r="V31">
+        <v>4.5</v>
+      </c>
+      <c r="W31">
+        <v>1.4</v>
+      </c>
+      <c r="X31">
+        <v>2.75</v>
+      </c>
+      <c r="Y31">
+        <v>3</v>
+      </c>
+      <c r="Z31">
+        <v>1.36</v>
+      </c>
+      <c r="AA31">
+        <v>8</v>
+      </c>
+      <c r="AB31">
+        <v>1.08</v>
+      </c>
+      <c r="AC31">
+        <v>1.99</v>
+      </c>
+      <c r="AD31">
+        <v>3.28</v>
+      </c>
+      <c r="AE31">
+        <v>3.42</v>
+      </c>
+      <c r="AF31">
+        <v>1.06</v>
+      </c>
+      <c r="AG31">
+        <v>8.75</v>
+      </c>
+      <c r="AH31">
+        <v>1.31</v>
+      </c>
+      <c r="AI31">
+        <v>3.1</v>
+      </c>
+      <c r="AJ31">
+        <v>2</v>
+      </c>
+      <c r="AK31">
+        <v>1.76</v>
+      </c>
+      <c r="AL31">
+        <v>1.8</v>
+      </c>
+      <c r="AM31">
+        <v>1.95</v>
+      </c>
+      <c r="AN31">
+        <v>1.25</v>
+      </c>
+      <c r="AO31">
+        <v>1.29</v>
+      </c>
+      <c r="AP31">
+        <v>1.85</v>
+      </c>
+      <c r="AQ31">
+        <v>1</v>
+      </c>
+      <c r="AR31">
+        <v>1</v>
+      </c>
+      <c r="AS31">
+        <v>2</v>
+      </c>
+      <c r="AT31">
+        <v>0.5</v>
+      </c>
+      <c r="AU31">
+        <v>1.05</v>
+      </c>
+      <c r="AV31">
+        <v>1.38</v>
+      </c>
+      <c r="AW31">
+        <v>2.43</v>
+      </c>
+      <c r="AX31">
+        <v>1.82</v>
+      </c>
+      <c r="AY31">
+        <v>7.5</v>
+      </c>
+      <c r="AZ31">
+        <v>2.44</v>
+      </c>
+      <c r="BA31">
+        <v>1.32</v>
+      </c>
+      <c r="BB31">
+        <v>1.61</v>
+      </c>
+      <c r="BC31">
+        <v>2.09</v>
+      </c>
+      <c r="BD31">
+        <v>2.76</v>
+      </c>
+      <c r="BE31">
+        <v>3.86</v>
+      </c>
+      <c r="BF31">
+        <v>4</v>
+      </c>
+      <c r="BG31">
+        <v>2</v>
+      </c>
+      <c r="BH31">
+        <v>6</v>
+      </c>
+      <c r="BI31">
+        <v>2</v>
+      </c>
+      <c r="BJ31">
+        <v>10</v>
+      </c>
+      <c r="BK31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>5188962</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2">
+        <v>44997.125</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>110</v>
+      </c>
+      <c r="P32" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q32">
+        <v>7</v>
+      </c>
+      <c r="R32">
+        <v>3</v>
+      </c>
+      <c r="S32">
+        <v>10</v>
+      </c>
+      <c r="T32">
+        <v>4</v>
+      </c>
+      <c r="U32">
+        <v>2.4</v>
+      </c>
+      <c r="V32">
+        <v>2.4</v>
+      </c>
+      <c r="W32">
+        <v>1.29</v>
+      </c>
+      <c r="X32">
+        <v>3.5</v>
+      </c>
+      <c r="Y32">
+        <v>2.25</v>
+      </c>
+      <c r="Z32">
+        <v>1.57</v>
+      </c>
+      <c r="AA32">
+        <v>5.5</v>
+      </c>
+      <c r="AB32">
+        <v>1.14</v>
+      </c>
+      <c r="AC32">
+        <v>3.64</v>
+      </c>
+      <c r="AD32">
+        <v>4.03</v>
+      </c>
+      <c r="AE32">
+        <v>1.89</v>
+      </c>
+      <c r="AF32">
+        <v>1.03</v>
+      </c>
+      <c r="AG32">
+        <v>13</v>
+      </c>
+      <c r="AH32">
+        <v>1.17</v>
+      </c>
+      <c r="AI32">
+        <v>4.5</v>
+      </c>
+      <c r="AJ32">
+        <v>1.5</v>
+      </c>
+      <c r="AK32">
+        <v>2.41</v>
+      </c>
+      <c r="AL32">
+        <v>1.53</v>
+      </c>
+      <c r="AM32">
+        <v>2.38</v>
+      </c>
+      <c r="AN32">
+        <v>1.83</v>
+      </c>
+      <c r="AO32">
+        <v>1.25</v>
+      </c>
+      <c r="AP32">
+        <v>1.28</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>3</v>
+      </c>
+      <c r="AS32">
+        <v>1.5</v>
+      </c>
+      <c r="AT32">
+        <v>1.5</v>
+      </c>
+      <c r="AU32">
+        <v>1.7</v>
+      </c>
+      <c r="AV32">
+        <v>1</v>
+      </c>
+      <c r="AW32">
+        <v>2.7</v>
+      </c>
+      <c r="AX32">
+        <v>2.88</v>
+      </c>
+      <c r="AY32">
+        <v>7.6</v>
+      </c>
+      <c r="AZ32">
+        <v>1.63</v>
+      </c>
+      <c r="BA32">
+        <v>1.41</v>
+      </c>
+      <c r="BB32">
+        <v>1.75</v>
+      </c>
+      <c r="BC32">
+        <v>2.25</v>
+      </c>
+      <c r="BD32">
+        <v>3.04</v>
+      </c>
+      <c r="BE32">
+        <v>4.5</v>
+      </c>
+      <c r="BF32">
+        <v>7</v>
+      </c>
+      <c r="BG32">
+        <v>3</v>
+      </c>
+      <c r="BH32">
+        <v>7</v>
+      </c>
+      <c r="BI32">
+        <v>3</v>
+      </c>
+      <c r="BJ32">
+        <v>14</v>
+      </c>
+      <c r="BK32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:63">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>5188963</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2">
+        <v>44997.125</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>84</v>
+      </c>
+      <c r="P33" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>2.75</v>
+      </c>
+      <c r="U33">
+        <v>1.95</v>
+      </c>
+      <c r="V33">
+        <v>4.75</v>
+      </c>
+      <c r="W33">
+        <v>1.53</v>
+      </c>
+      <c r="X33">
+        <v>2.38</v>
+      </c>
+      <c r="Y33">
+        <v>3.75</v>
+      </c>
+      <c r="Z33">
+        <v>1.25</v>
+      </c>
+      <c r="AA33">
+        <v>11</v>
+      </c>
+      <c r="AB33">
+        <v>1.05</v>
+      </c>
+      <c r="AC33">
+        <v>1.85</v>
+      </c>
+      <c r="AD33">
+        <v>3.4</v>
+      </c>
+      <c r="AE33">
+        <v>4.6</v>
+      </c>
+      <c r="AF33">
+        <v>1.09</v>
+      </c>
+      <c r="AG33">
+        <v>6.5</v>
+      </c>
+      <c r="AH33">
+        <v>1.47</v>
+      </c>
+      <c r="AI33">
+        <v>2.6</v>
+      </c>
+      <c r="AJ33">
+        <v>2.3</v>
+      </c>
+      <c r="AK33">
+        <v>1.5</v>
+      </c>
+      <c r="AL33">
+        <v>2.1</v>
+      </c>
+      <c r="AM33">
+        <v>1.67</v>
+      </c>
+      <c r="AN33">
+        <v>1.23</v>
+      </c>
+      <c r="AO33">
+        <v>1.33</v>
+      </c>
+      <c r="AP33">
+        <v>1.78</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0.5</v>
+      </c>
+      <c r="AT33">
+        <v>0.5</v>
+      </c>
+      <c r="AU33">
+        <v>1.05</v>
+      </c>
+      <c r="AV33">
+        <v>1.21</v>
+      </c>
+      <c r="AW33">
+        <v>2.26</v>
+      </c>
+      <c r="AX33">
+        <v>1.73</v>
+      </c>
+      <c r="AY33">
+        <v>7.3</v>
+      </c>
+      <c r="AZ33">
+        <v>2.65</v>
+      </c>
+      <c r="BA33">
+        <v>1.48</v>
+      </c>
+      <c r="BB33">
+        <v>1.87</v>
+      </c>
+      <c r="BC33">
+        <v>2.46</v>
+      </c>
+      <c r="BD33">
+        <v>3.42</v>
+      </c>
+      <c r="BE33">
+        <v>5</v>
+      </c>
+      <c r="BF33">
+        <v>2</v>
+      </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <v>7</v>
+      </c>
+      <c r="BI33">
+        <v>4</v>
+      </c>
+      <c r="BJ33">
+        <v>9</v>
+      </c>
+      <c r="BK33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:63">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>5188964</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2">
+        <v>44997.125</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34" t="s">
+        <v>84</v>
+      </c>
+      <c r="P34" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q34">
+        <v>10</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>10</v>
+      </c>
+      <c r="T34">
+        <v>3.6</v>
+      </c>
+      <c r="U34">
+        <v>1.95</v>
+      </c>
+      <c r="V34">
+        <v>3.4</v>
+      </c>
+      <c r="W34">
+        <v>1.53</v>
+      </c>
+      <c r="X34">
+        <v>2.38</v>
+      </c>
+      <c r="Y34">
+        <v>3.5</v>
+      </c>
+      <c r="Z34">
+        <v>1.29</v>
+      </c>
+      <c r="AA34">
+        <v>11</v>
+      </c>
+      <c r="AB34">
+        <v>1.05</v>
+      </c>
+      <c r="AC34">
+        <v>3.1</v>
+      </c>
+      <c r="AD34">
+        <v>3.05</v>
+      </c>
+      <c r="AE34">
+        <v>2.52</v>
+      </c>
+      <c r="AF34">
+        <v>1.09</v>
+      </c>
+      <c r="AG34">
+        <v>6.75</v>
+      </c>
+      <c r="AH34">
+        <v>1.42</v>
+      </c>
+      <c r="AI34">
+        <v>2.6</v>
+      </c>
+      <c r="AJ34">
+        <v>2.3</v>
+      </c>
+      <c r="AK34">
+        <v>1.53</v>
+      </c>
+      <c r="AL34">
+        <v>2</v>
+      </c>
+      <c r="AM34">
+        <v>1.75</v>
+      </c>
+      <c r="AN34">
+        <v>1.47</v>
+      </c>
+      <c r="AO34">
+        <v>1.35</v>
+      </c>
+      <c r="AP34">
+        <v>1.42</v>
+      </c>
+      <c r="AQ34">
+        <v>1</v>
+      </c>
+      <c r="AR34">
+        <v>1.5</v>
+      </c>
+      <c r="AS34">
+        <v>0.67</v>
+      </c>
+      <c r="AT34">
+        <v>2</v>
+      </c>
+      <c r="AU34">
+        <v>1.15</v>
+      </c>
+      <c r="AV34">
+        <v>1.2</v>
+      </c>
+      <c r="AW34">
+        <v>2.35</v>
+      </c>
+      <c r="AX34">
+        <v>1.97</v>
+      </c>
+      <c r="AY34">
+        <v>7.3</v>
+      </c>
+      <c r="AZ34">
+        <v>2.23</v>
+      </c>
+      <c r="BA34">
+        <v>1.37</v>
+      </c>
+      <c r="BB34">
+        <v>1.69</v>
+      </c>
+      <c r="BC34">
+        <v>2.17</v>
+      </c>
+      <c r="BD34">
+        <v>2.88</v>
+      </c>
+      <c r="BE34">
+        <v>4.5</v>
+      </c>
+      <c r="BF34">
+        <v>7</v>
+      </c>
+      <c r="BG34">
+        <v>9</v>
+      </c>
+      <c r="BH34">
+        <v>6</v>
+      </c>
+      <c r="BI34">
+        <v>4</v>
+      </c>
+      <c r="BJ34">
+        <v>13</v>
+      </c>
+      <c r="BK34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:63">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>5188965</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2">
+        <v>44997.125</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35" t="s">
+        <v>111</v>
+      </c>
+      <c r="P35" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q35">
+        <v>6</v>
+      </c>
+      <c r="R35">
+        <v>6</v>
+      </c>
+      <c r="S35">
+        <v>12</v>
+      </c>
+      <c r="T35">
+        <v>2.2</v>
+      </c>
+      <c r="U35">
+        <v>2.2</v>
+      </c>
+      <c r="V35">
+        <v>6</v>
+      </c>
+      <c r="W35">
+        <v>1.4</v>
+      </c>
+      <c r="X35">
+        <v>2.75</v>
+      </c>
+      <c r="Y35">
+        <v>3</v>
+      </c>
+      <c r="Z35">
+        <v>1.36</v>
+      </c>
+      <c r="AA35">
+        <v>8</v>
+      </c>
+      <c r="AB35">
+        <v>1.08</v>
+      </c>
+      <c r="AC35">
+        <v>1.7</v>
+      </c>
+      <c r="AD35">
+        <v>3.54</v>
+      </c>
+      <c r="AE35">
+        <v>4.38</v>
+      </c>
+      <c r="AF35">
+        <v>1.06</v>
+      </c>
+      <c r="AG35">
+        <v>8.75</v>
+      </c>
+      <c r="AH35">
+        <v>1.31</v>
+      </c>
+      <c r="AI35">
+        <v>3.1</v>
+      </c>
+      <c r="AJ35">
+        <v>1.97</v>
+      </c>
+      <c r="AK35">
+        <v>1.75</v>
+      </c>
+      <c r="AL35">
+        <v>2</v>
+      </c>
+      <c r="AM35">
+        <v>1.75</v>
+      </c>
+      <c r="AN35">
+        <v>1.09</v>
+      </c>
+      <c r="AO35">
+        <v>1.2</v>
+      </c>
+      <c r="AP35">
+        <v>2.3</v>
+      </c>
+      <c r="AQ35">
+        <v>3</v>
+      </c>
+      <c r="AR35">
+        <v>1</v>
+      </c>
+      <c r="AS35">
+        <v>3</v>
+      </c>
+      <c r="AT35">
+        <v>0.5</v>
+      </c>
+      <c r="AU35">
+        <v>1.14</v>
+      </c>
+      <c r="AV35">
+        <v>2.72</v>
+      </c>
+      <c r="AW35">
+        <v>3.86</v>
+      </c>
+      <c r="AX35">
+        <v>1.38</v>
+      </c>
+      <c r="AY35">
+        <v>9</v>
+      </c>
+      <c r="AZ35">
+        <v>3.88</v>
+      </c>
+      <c r="BA35">
+        <v>1.34</v>
+      </c>
+      <c r="BB35">
+        <v>1.64</v>
+      </c>
+      <c r="BC35">
+        <v>2.11</v>
+      </c>
+      <c r="BD35">
+        <v>2.8</v>
+      </c>
+      <c r="BE35">
+        <v>3.84</v>
+      </c>
+      <c r="BF35">
+        <v>8</v>
+      </c>
+      <c r="BG35">
+        <v>7</v>
+      </c>
+      <c r="BH35">
+        <v>5</v>
+      </c>
+      <c r="BI35">
+        <v>2</v>
+      </c>
+      <c r="BJ35">
+        <v>13</v>
+      </c>
+      <c r="BK35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:63">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>5188966</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="2">
+        <v>44997.125</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36" t="s">
+        <v>84</v>
+      </c>
+      <c r="P36" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q36">
+        <v>7</v>
+      </c>
+      <c r="R36">
+        <v>4</v>
+      </c>
+      <c r="S36">
+        <v>11</v>
+      </c>
+      <c r="T36">
+        <v>2.4</v>
+      </c>
+      <c r="U36">
+        <v>2.1</v>
+      </c>
+      <c r="V36">
+        <v>5.5</v>
+      </c>
+      <c r="W36">
+        <v>1.44</v>
+      </c>
+      <c r="X36">
+        <v>2.63</v>
+      </c>
+      <c r="Y36">
+        <v>3.25</v>
+      </c>
+      <c r="Z36">
+        <v>1.33</v>
+      </c>
+      <c r="AA36">
+        <v>9</v>
+      </c>
+      <c r="AB36">
+        <v>1.07</v>
+      </c>
+      <c r="AC36">
+        <v>1.75</v>
+      </c>
+      <c r="AD36">
+        <v>3.63</v>
+      </c>
+      <c r="AE36">
+        <v>4.85</v>
+      </c>
+      <c r="AF36">
+        <v>1.07</v>
+      </c>
+      <c r="AG36">
+        <v>8</v>
+      </c>
+      <c r="AH36">
+        <v>1.35</v>
+      </c>
+      <c r="AI36">
+        <v>2.9</v>
+      </c>
+      <c r="AJ36">
+        <v>2.16</v>
+      </c>
+      <c r="AK36">
+        <v>1.66</v>
+      </c>
+      <c r="AL36">
+        <v>2</v>
+      </c>
+      <c r="AM36">
+        <v>1.75</v>
+      </c>
+      <c r="AN36">
+        <v>1.19</v>
+      </c>
+      <c r="AO36">
+        <v>1.29</v>
+      </c>
+      <c r="AP36">
+        <v>1.98</v>
+      </c>
+      <c r="AQ36">
+        <v>1</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>0.5</v>
+      </c>
+      <c r="AT36">
+        <v>1.5</v>
+      </c>
+      <c r="AU36">
+        <v>2.48</v>
+      </c>
+      <c r="AV36">
+        <v>1.26</v>
+      </c>
+      <c r="AW36">
+        <v>3.74</v>
+      </c>
+      <c r="AX36">
+        <v>1.24</v>
+      </c>
+      <c r="AY36">
+        <v>10.5</v>
+      </c>
+      <c r="AZ36">
+        <v>5.25</v>
+      </c>
+      <c r="BA36">
+        <v>1.28</v>
+      </c>
+      <c r="BB36">
+        <v>1.53</v>
+      </c>
+      <c r="BC36">
+        <v>1.91</v>
+      </c>
+      <c r="BD36">
+        <v>2.46</v>
+      </c>
+      <c r="BE36">
+        <v>3.28</v>
+      </c>
+      <c r="BF36">
+        <v>6</v>
+      </c>
+      <c r="BG36">
+        <v>8</v>
+      </c>
+      <c r="BH36">
+        <v>9</v>
+      </c>
+      <c r="BI36">
+        <v>4</v>
+      </c>
+      <c r="BJ36">
+        <v>15</v>
+      </c>
+      <c r="BK36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:63">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>5188967</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2">
+        <v>44997.16666666666</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P37" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q37">
+        <v>6</v>
+      </c>
+      <c r="R37">
+        <v>6</v>
+      </c>
+      <c r="S37">
+        <v>12</v>
+      </c>
+      <c r="T37">
+        <v>4.5</v>
+      </c>
+      <c r="U37">
+        <v>2.2</v>
+      </c>
+      <c r="V37">
+        <v>2.5</v>
+      </c>
+      <c r="W37">
+        <v>1.4</v>
+      </c>
+      <c r="X37">
+        <v>2.75</v>
+      </c>
+      <c r="Y37">
+        <v>2.75</v>
+      </c>
+      <c r="Z37">
+        <v>1.4</v>
+      </c>
+      <c r="AA37">
+        <v>8</v>
+      </c>
+      <c r="AB37">
+        <v>1.08</v>
+      </c>
+      <c r="AC37">
+        <v>3.89</v>
+      </c>
+      <c r="AD37">
+        <v>3.62</v>
+      </c>
+      <c r="AE37">
+        <v>1.93</v>
+      </c>
+      <c r="AF37">
+        <v>1.05</v>
+      </c>
+      <c r="AG37">
+        <v>9.5</v>
+      </c>
+      <c r="AH37">
+        <v>1.27</v>
+      </c>
+      <c r="AI37">
+        <v>3.4</v>
+      </c>
+      <c r="AJ37">
+        <v>1.85</v>
+      </c>
+      <c r="AK37">
+        <v>1.97</v>
+      </c>
+      <c r="AL37">
+        <v>1.8</v>
+      </c>
+      <c r="AM37">
+        <v>1.95</v>
+      </c>
+      <c r="AN37">
+        <v>1.87</v>
+      </c>
+      <c r="AO37">
+        <v>1.28</v>
+      </c>
+      <c r="AP37">
+        <v>1.24</v>
+      </c>
+      <c r="AQ37">
+        <v>1</v>
+      </c>
+      <c r="AR37">
+        <v>1</v>
+      </c>
+      <c r="AS37">
+        <v>0.5</v>
+      </c>
+      <c r="AT37">
+        <v>2</v>
+      </c>
+      <c r="AU37">
+        <v>2.2</v>
+      </c>
+      <c r="AV37">
+        <v>1.59</v>
+      </c>
+      <c r="AW37">
+        <v>3.79</v>
+      </c>
+      <c r="AX37">
+        <v>2.98</v>
+      </c>
+      <c r="AY37">
+        <v>8</v>
+      </c>
+      <c r="AZ37">
+        <v>1.58</v>
+      </c>
+      <c r="BA37">
+        <v>1.45</v>
+      </c>
+      <c r="BB37">
+        <v>1.82</v>
+      </c>
+      <c r="BC37">
+        <v>2.34</v>
+      </c>
+      <c r="BD37">
+        <v>3.18</v>
+      </c>
+      <c r="BE37">
+        <v>4.75</v>
+      </c>
+      <c r="BF37">
+        <v>5</v>
+      </c>
+      <c r="BG37">
+        <v>6</v>
+      </c>
+      <c r="BH37">
+        <v>7</v>
+      </c>
+      <c r="BI37">
+        <v>7</v>
+      </c>
+      <c r="BJ37">
+        <v>12</v>
+      </c>
+      <c r="BK37">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK37"/>
+  <dimension ref="A1:BK44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT2" t="n">
         <v>1.5</v>
@@ -1715,7 +1715,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT14" t="n">
         <v>0.5</v>
@@ -3542,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>0.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU18" t="n">
         <v>1.61</v>
@@ -4354,7 +4354,7 @@
         <v>0.67</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU19" t="n">
         <v>1.53</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT20" t="n">
         <v>2</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT21" t="n">
         <v>2</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="AT22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU22" t="n">
         <v>1.4</v>
@@ -5369,7 +5369,7 @@
         <v>1.5</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU24" t="n">
         <v>0.79</v>
@@ -5775,7 +5775,7 @@
         <v>3</v>
       </c>
       <c r="AT26" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT28" t="n">
         <v>2</v>
@@ -7805,7 +7805,7 @@
         <v>0.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU36" t="n">
         <v>2.48</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT37" t="n">
         <v>2</v>
@@ -8060,6 +8060,1427 @@
       </c>
       <c r="BK37" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5188970</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45003.08333333334</v>
+      </c>
+      <c r="F38" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>7</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V38" t="n">
+        <v>4</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5188969</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45003.08333333334</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Kyoto Sanga</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>['34', '48', '71', '80']</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>8</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5188968</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45003.08333333334</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['56', '62']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>7</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>11</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V40" t="n">
+        <v>4</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5188971</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45003.125</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>['35', '45+2']</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>8</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5188972</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45003.125</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>['59', '61']</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>['6', '32']</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6</v>
+      </c>
+      <c r="S42" t="n">
+        <v>9</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5188973</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45003.125</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6</v>
+      </c>
+      <c r="S43" t="n">
+        <v>9</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5188974</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45003.16666666666</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>9</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V44" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X44" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK46"/>
+  <dimension ref="A1:BK55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.67</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AT5" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT7" t="n">
         <v>1.33</v>
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" t="n">
         <v>1.33</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT11" t="n">
         <v>0.5</v>
@@ -2933,7 +2933,7 @@
         <v>2.33</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT13" t="n">
         <v>3</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU19" t="n">
         <v>1.53</v>
@@ -4557,7 +4557,7 @@
         <v>2.33</v>
       </c>
       <c r="AT20" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU20" t="n">
         <v>1.93</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AT22" t="n">
         <v>2</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT23" t="n">
         <v>1</v>
@@ -5366,10 +5366,10 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU24" t="n">
         <v>0.79</v>
@@ -5572,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU25" t="n">
         <v>1.22</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU28" t="n">
         <v>1.2</v>
@@ -6384,7 +6384,7 @@
         <v>2</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU29" t="n">
         <v>1.31</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU30" t="n">
         <v>1.4</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT31" t="n">
         <v>0.5</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.7</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU33" t="n">
         <v>1.05</v>
@@ -7396,10 +7396,10 @@
         <v>1.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT34" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU34" t="n">
         <v>1.15</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT36" t="n">
         <v>2</v>
@@ -8008,7 +8008,7 @@
         <v>0.67</v>
       </c>
       <c r="AT37" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU37" t="n">
         <v>2.2</v>
@@ -8211,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU38" t="n">
         <v>2.05</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AT39" t="n">
         <v>2</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT43" t="n">
         <v>3</v>
@@ -9887,6 +9887,1833 @@
       </c>
       <c r="BK46" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5188977</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45016.29166666666</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>['44', '75', '81']</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>6</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>9</v>
+      </c>
+      <c r="T47" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>3</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5188980</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45017.08333333334</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Kyoto Sanga</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>['55', '68', '80']</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>6</v>
+      </c>
+      <c r="T48" t="n">
+        <v>4</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5188978</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45017.08333333334</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['45+9']</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="n">
+        <v>4</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5188979</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45017.08333333334</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="n">
+        <v>4</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>['56', '80', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>7</v>
+      </c>
+      <c r="S50" t="n">
+        <v>9</v>
+      </c>
+      <c r="T50" t="n">
+        <v>4</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5188981</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45017.125</v>
+      </c>
+      <c r="F51" t="n">
+        <v>6</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>['86', '88']</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>6</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>10</v>
+      </c>
+      <c r="T51" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5188982</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45017.125</v>
+      </c>
+      <c r="F52" t="n">
+        <v>6</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>4</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>4</v>
+      </c>
+      <c r="L52" t="n">
+        <v>4</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="n">
+        <v>5</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['21', '38', '40', '42']</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>9</v>
+      </c>
+      <c r="S52" t="n">
+        <v>13</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V52" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5188983</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45017.125</v>
+      </c>
+      <c r="F53" t="n">
+        <v>6</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>7</v>
+      </c>
+      <c r="T53" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V53" t="n">
+        <v>3</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X53" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5188984</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45017.16666666666</v>
+      </c>
+      <c r="F54" t="n">
+        <v>6</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>['16', '35']</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>6</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>11</v>
+      </c>
+      <c r="T54" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5188985</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45017.29166666666</v>
+      </c>
+      <c r="F55" t="n">
+        <v>6</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3</v>
+      </c>
+      <c r="K55" t="n">
+        <v>5</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="n">
+        <v>7</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['7', '27', '59']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>['25', '39', '45+1', '86']</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>6</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>8</v>
+      </c>
+      <c r="T55" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V55" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK55"/>
+  <dimension ref="A1:BK56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,7 +2730,7 @@
         <v>1.33</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT12" t="n">
         <v>1.5</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT20" t="n">
         <v>2.33</v>
@@ -7602,7 +7602,7 @@
         <v>3</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU35" t="n">
         <v>1.14</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT40" t="n">
         <v>2</v>
@@ -11714,6 +11714,209 @@
       </c>
       <c r="BK55" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5188986</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45024.29166666666</v>
+      </c>
+      <c r="F56" t="n">
+        <v>7</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>5</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>5</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['46', '62', '68', '73', '90']</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>8</v>
+      </c>
+      <c r="S56" t="n">
+        <v>11</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="V56" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK56"/>
+  <dimension ref="A1:BK64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT8" t="n">
         <v>0.67</v>
@@ -2324,7 +2324,7 @@
         <v>1.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
         <v>0.33</v>
@@ -2933,7 +2933,7 @@
         <v>2.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.33</v>
       </c>
       <c r="AT16" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT17" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU18" t="n">
         <v>1.61</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT19" t="n">
         <v>0.5</v>
@@ -4760,7 +4760,7 @@
         <v>0.67</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU21" t="n">
         <v>1.61</v>
@@ -4963,7 +4963,7 @@
         <v>0.25</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.4</v>
@@ -5166,7 +5166,7 @@
         <v>1.33</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT25" t="n">
         <v>0.33</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU29" t="n">
         <v>1.31</v>
@@ -6587,7 +6587,7 @@
         <v>1.33</v>
       </c>
       <c r="AT30" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU30" t="n">
         <v>1.4</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU31" t="n">
         <v>1.05</v>
@@ -7396,7 +7396,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT34" t="n">
         <v>2.25</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT35" t="n">
         <v>0.33</v>
@@ -7805,7 +7805,7 @@
         <v>1.33</v>
       </c>
       <c r="AT36" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU36" t="n">
         <v>2.48</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT37" t="n">
         <v>2.33</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT38" t="n">
         <v>0.5</v>
@@ -8414,7 +8414,7 @@
         <v>0.25</v>
       </c>
       <c r="AT39" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU39" t="n">
         <v>0.96</v>
@@ -8617,7 +8617,7 @@
         <v>2.5</v>
       </c>
       <c r="AT40" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU40" t="n">
         <v>1.61</v>
@@ -8820,7 +8820,7 @@
         <v>3</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU41" t="n">
         <v>1.37</v>
@@ -9020,10 +9020,10 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT42" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU42" t="n">
         <v>1.84</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT45" t="n">
         <v>0</v>
@@ -9835,7 +9835,7 @@
         <v>3</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU46" t="n">
         <v>1.39</v>
@@ -10035,10 +10035,10 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU47" t="n">
         <v>1.4</v>
@@ -11456,7 +11456,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT54" t="n">
         <v>1</v>
@@ -11662,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="AT55" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU55" t="n">
         <v>1.7</v>
@@ -11917,6 +11917,1630 @@
       </c>
       <c r="BK56" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5188989</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45025.08333333334</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>8</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V57" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5188988</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45025.08333333334</v>
+      </c>
+      <c r="F58" t="n">
+        <v>7</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>6</v>
+      </c>
+      <c r="S58" t="n">
+        <v>10</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V58" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5188987</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45025.08333333334</v>
+      </c>
+      <c r="F59" t="n">
+        <v>7</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="n">
+        <v>5</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['14', '61']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['6', '15', '64']</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>10</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V59" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X59" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5188990</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45025.125</v>
+      </c>
+      <c r="F60" t="n">
+        <v>7</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="n">
+        <v>4</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['30', '65']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['54', '59']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>7</v>
+      </c>
+      <c r="R60" t="n">
+        <v>12</v>
+      </c>
+      <c r="S60" t="n">
+        <v>19</v>
+      </c>
+      <c r="T60" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="V60" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5188991</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45025.125</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>11</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>13</v>
+      </c>
+      <c r="T61" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>5188992</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45025.125</v>
+      </c>
+      <c r="F62" t="n">
+        <v>7</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>2</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['29', '50']</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>6</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>9</v>
+      </c>
+      <c r="T62" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X62" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5188993</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45025.125</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Kyoto Sanga</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>3</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['78', '82']</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>9</v>
+      </c>
+      <c r="T63" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V63" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>5188994</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45025.29166666666</v>
+      </c>
+      <c r="F64" t="n">
+        <v>7</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>9</v>
+      </c>
+      <c r="T64" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V64" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -13525,22 +13525,22 @@
         <v>4.1</v>
       </c>
       <c r="BF64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG64" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BH64" t="n">
         <v>4</v>
       </c>
       <c r="BI64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BK64" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK64"/>
+  <dimension ref="A1:BK73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -1106,7 +1106,7 @@
         <v>1.75</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT4" t="n">
         <v>1.4</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT6" t="n">
         <v>1.5</v>
@@ -2121,7 +2121,7 @@
         <v>1.75</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT9" t="n">
         <v>1.25</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT11" t="n">
         <v>0.33</v>
@@ -3542,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT16" t="n">
         <v>1.5</v>
@@ -4557,7 +4557,7 @@
         <v>2.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU20" t="n">
         <v>1.93</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT21" t="n">
         <v>1.25</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT22" t="n">
         <v>1.5</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT24" t="n">
         <v>0.5</v>
@@ -5572,7 +5572,7 @@
         <v>1.75</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU25" t="n">
         <v>1.22</v>
@@ -5775,7 +5775,7 @@
         <v>3</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>3</v>
       </c>
       <c r="AT27" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU27" t="n">
         <v>1.71</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU28" t="n">
         <v>1.2</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT30" t="n">
         <v>1.5</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU33" t="n">
         <v>1.05</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU34" t="n">
         <v>1.15</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT35" t="n">
         <v>0.33</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT36" t="n">
         <v>1.5</v>
@@ -8008,7 +8008,7 @@
         <v>1.25</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU37" t="n">
         <v>2.2</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT39" t="n">
         <v>1.5</v>
@@ -9023,7 +9023,7 @@
         <v>1.25</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU42" t="n">
         <v>1.84</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT43" t="n">
         <v>3</v>
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU44" t="n">
         <v>1.37</v>
@@ -9632,7 +9632,7 @@
         <v>1.75</v>
       </c>
       <c r="AT45" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU45" t="n">
         <v>2.41</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT48" t="n">
         <v>3</v>
@@ -10441,10 +10441,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU49" t="n">
         <v>1.01</v>
@@ -10644,10 +10644,10 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU50" t="n">
         <v>1.26</v>
@@ -10847,10 +10847,10 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU51" t="n">
         <v>1.11</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU52" t="n">
         <v>2.13</v>
@@ -11253,7 +11253,7 @@
         <v>0.67</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT53" t="n">
         <v>0.5</v>
@@ -12474,7 +12474,7 @@
         <v>1.75</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU59" t="n">
         <v>1.05</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT60" t="n">
         <v>1.25</v>
@@ -13541,6 +13541,1833 @@
       </c>
       <c r="BK64" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5188995</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45031.08333333334</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>['49', '73', '75']</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>7</v>
+      </c>
+      <c r="S65" t="n">
+        <v>11</v>
+      </c>
+      <c r="T65" t="n">
+        <v>6</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5188996</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45031.08333333334</v>
+      </c>
+      <c r="F66" t="n">
+        <v>8</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2</v>
+      </c>
+      <c r="L66" t="n">
+        <v>3</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="n">
+        <v>5</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['47', '90+3', '90+5']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['17', '32']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>6</v>
+      </c>
+      <c r="S66" t="n">
+        <v>11</v>
+      </c>
+      <c r="T66" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5189000</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45031.125</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>6</v>
+      </c>
+      <c r="R67" t="n">
+        <v>9</v>
+      </c>
+      <c r="S67" t="n">
+        <v>15</v>
+      </c>
+      <c r="T67" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U67" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V67" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5188999</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45031.125</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>9</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>11</v>
+      </c>
+      <c r="T68" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V68" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X68" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5188998</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45031.125</v>
+      </c>
+      <c r="F69" t="n">
+        <v>8</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="n">
+        <v>3</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['9', '45+2']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V69" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5188997</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45031.125</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>4</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['68', '83', '90+5', '90+8']</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>6</v>
+      </c>
+      <c r="T70" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V70" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X70" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5189001</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45031.16666666666</v>
+      </c>
+      <c r="F71" t="n">
+        <v>8</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="n">
+        <v>6</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['24', '45+2', '48', '72', '85']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>7</v>
+      </c>
+      <c r="S71" t="n">
+        <v>12</v>
+      </c>
+      <c r="T71" t="n">
+        <v>3</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5189002</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45031.16666666666</v>
+      </c>
+      <c r="F72" t="n">
+        <v>8</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['59', '84']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>6</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>11</v>
+      </c>
+      <c r="T72" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V72" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5189003</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45031.16666666666</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Kyoto Sanga</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['22', '82']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>8</v>
+      </c>
+      <c r="T73" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V73" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
